--- a/文档和备忘/数智教育用户手册.xlsx
+++ b/文档和备忘/数智教育用户手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="7选3" sheetId="4" r:id="rId4"/>
     <sheet name="考试" sheetId="5" r:id="rId5"/>
     <sheet name="消费" sheetId="6" r:id="rId6"/>
+    <sheet name="考勤" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>数智教育 - 宁波实效中学 可视化门户网站使用说明</t>
   </si>
@@ -197,16 +198,37 @@
   <si>
     <t>在初始状态下，由于没有设定上限金额，记录表示区域为空</t>
   </si>
+  <si>
+    <t>考勤</t>
+  </si>
+  <si>
+    <t>考勤次数的环形图，点击每个区域可以查看详细信息。</t>
+  </si>
+  <si>
+    <t>各种考勤按月分统计图表</t>
+  </si>
+  <si>
+    <t>违规行为</t>
+  </si>
+  <si>
+    <t>交互体验：</t>
+  </si>
+  <si>
+    <t>*由于迟到和晚到，早上迟到是同样的意思，如果我只想看这三种数据，可以切换数据可见性</t>
+  </si>
+  <si>
+    <t>*只想查看某一个时期的数据</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -251,75 +273,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,6 +304,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -347,16 +350,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,17 +394,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,13 +423,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,19 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,19 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,37 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,25 +585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +614,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,6 +667,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,65 +714,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,16 +734,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,115 +752,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6486,6 +6508,1372 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="19659600"/>
+          <a:ext cx="9591675" cy="7448550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="2066925"/>
+          <a:ext cx="9829800" cy="7515225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="5650230"/>
+          <a:ext cx="3314700" cy="3360420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="4667250"/>
+          <a:ext cx="657225" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右箭头 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1800000">
+          <a:off x="4318635" y="5411470"/>
+          <a:ext cx="3013710" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 102284"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击迟到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>晚到 区域</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="20126325"/>
+          <a:ext cx="4743450" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="线形标注 2 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="20840700"/>
+          <a:ext cx="1990725" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50632"/>
+            <a:gd name="adj2" fmla="val 99106"/>
+            <a:gd name="adj3" fmla="val 44764"/>
+            <a:gd name="adj4" fmla="val 118628"/>
+            <a:gd name="adj5" fmla="val -88837"/>
+            <a:gd name="adj6" fmla="val 173173"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>点击标签可以切换某种数据的可见性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="26593800"/>
+          <a:ext cx="7581265" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="线形标注 2 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="27355800"/>
+          <a:ext cx="2571750" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50632"/>
+            <a:gd name="adj2" fmla="val 99106"/>
+            <a:gd name="adj3" fmla="val 44764"/>
+            <a:gd name="adj4" fmla="val 118628"/>
+            <a:gd name="adj5" fmla="val -88837"/>
+            <a:gd name="adj6" fmla="val 173173"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>可以调整数据窗口【宽度可以变化】和范围【前后可以移动】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>153670</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="10439400"/>
+          <a:ext cx="5554345" cy="4297045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="10458450"/>
+          <a:ext cx="5574665" cy="4304665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>170180</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="15078075"/>
+          <a:ext cx="5104130" cy="3917950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="15049500"/>
+          <a:ext cx="5049520" cy="3919220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="30365700"/>
+          <a:ext cx="5943600" cy="4637405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="30346650"/>
+          <a:ext cx="5930900" cy="4669155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7102,7 +8490,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -7111,37 +8499,37 @@
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="11:11">
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="11:11">
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="1" t="s">
+      <c r="K89" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="1" t="s">
+      <c r="K142" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7157,6 +8545,62 @@
   <sheetPr/>
   <dimension ref="E4:J52"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="30" spans="5:5">
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E4:AR143"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -7168,37 +8612,35 @@
   <sheetData>
     <row r="4" ht="30" spans="5:5">
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
-      <c r="H6" s="1" t="s">
-        <v>53</v>
+    <row r="7" spans="10:10">
+      <c r="J7" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="10:10">
-      <c r="J8" s="1" t="s">
-        <v>54</v>
+    <row r="48" spans="10:10">
+      <c r="J48" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="10:10">
-      <c r="J10" s="1" t="s">
-        <v>55</v>
+    <row r="92" spans="10:10">
+      <c r="J92" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
-      <c r="J12" s="1" t="s">
-        <v>56</v>
+    <row r="141" spans="11:11">
+      <c r="K141" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="50" spans="10:10">
-      <c r="J50" s="1" t="s">
-        <v>57</v>
+    <row r="143" spans="11:44">
+      <c r="K143" s="1" t="s">
+        <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="10:10">
-      <c r="J52" s="1" t="s">
-        <v>58</v>
+      <c r="AR143" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/文档和备忘/数智教育用户手册.xlsx
+++ b/文档和备忘/数智教育用户手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="考试" sheetId="5" r:id="rId5"/>
     <sheet name="消费" sheetId="6" r:id="rId6"/>
     <sheet name="考勤" sheetId="7" r:id="rId7"/>
+    <sheet name="教师首页" sheetId="8" r:id="rId8"/>
+    <sheet name="学生首页" sheetId="9" r:id="rId9"/>
+    <sheet name="班级首页" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>数智教育 - 宁波实效中学 可视化门户网站使用说明</t>
   </si>
@@ -219,6 +222,93 @@
   <si>
     <t>*只想查看某一个时期的数据</t>
   </si>
+  <si>
+    <t>教师首页</t>
+  </si>
+  <si>
+    <t>成绩列表：本学期所任课的班级的考试成绩列表</t>
+  </si>
+  <si>
+    <t>本学期班级：本学期所任何的班级列表</t>
+  </si>
+  <si>
+    <t>往年任课班级：如果该教师在以前的学年也有任课班级，则会在本学期班级之后列出</t>
+  </si>
+  <si>
+    <t>往年任课班级没有点击进入班级首页功能</t>
+  </si>
+  <si>
+    <t>学生首页</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>这里将非平时考试的等第平均和TScore平均作为考查学生水平的依据。</t>
+  </si>
+  <si>
+    <t>这里的等第已经做过变换了，变换后的等第越大，成绩越好。</t>
+  </si>
+  <si>
+    <t>点击详细按钮，进入成绩的详细页。高一，高二，高三学生由于数据不同，关注点不同，页面呈现数据也不同。</t>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>成绩列表：展示所有成绩</t>
+  </si>
+  <si>
+    <t>高一学生</t>
+  </si>
+  <si>
+    <t>各科图表：展示了高一第一学期期中考试的成绩</t>
+  </si>
+  <si>
+    <t>高二学生</t>
+  </si>
+  <si>
+    <t>各科列表：展示了所有高考课程的趋势</t>
+  </si>
+  <si>
+    <t>*技术：由于只有2个平时成绩，无法客观的评价，所以这里没有列出</t>
+  </si>
+  <si>
+    <t>班级百分比和等第可能出现数据个数不同的现象。</t>
+  </si>
+  <si>
+    <t>高三学生</t>
+  </si>
+  <si>
+    <t>各科列表：展示了所有主课和7选3课程的趋势</t>
+  </si>
+  <si>
+    <t>*班级百分比和等第可能出现数据个数不同的现象。</t>
+  </si>
+  <si>
+    <t>如果该学生无法确定7选3课程，则显示所有课程的趋势</t>
+  </si>
+  <si>
+    <t>如果有消费记录，则这里展示每月的消费总金额。</t>
+  </si>
+  <si>
+    <t>在详细表示里面，系统按照时段统计了消费的日平均值和总消费金额，同时按照周次统计了总体消费金额</t>
+  </si>
+  <si>
+    <t>消费明细</t>
+  </si>
+  <si>
+    <t>消费明细列表将周次，温度信息和消费金额一起进行了展示</t>
+  </si>
+  <si>
+    <t>同时提供了每日消费的图形表示：该图表支持观察区域的窗口变化和移动</t>
+  </si>
+  <si>
+    <t>班级首页</t>
+  </si>
+  <si>
+    <t>成绩列表：展示了每学年的所有科目班级成绩列表。点击之后则进入学生成绩明细里列表</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +320,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +336,18 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -267,6 +369,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,15 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,8 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +525,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,43 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +639,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,30 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,37 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +836,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,7 +985,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,6 +1135,855 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>175895</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12963525" y="14058900"/>
+          <a:ext cx="4214495" cy="3342005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="19935825"/>
+          <a:ext cx="5718810" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="1219200"/>
+          <a:ext cx="10944225" cy="8724900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="10648950"/>
+          <a:ext cx="10944225" cy="7191375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="18783300"/>
+          <a:ext cx="10925175" cy="7981950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="21555075"/>
+          <a:ext cx="7219315" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右箭头 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="21393150"/>
+          <a:ext cx="2390775" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 91250"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击某个班级的记录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="15220950"/>
+          <a:ext cx="10438765" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右箭头 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039475" y="15059025"/>
+          <a:ext cx="2390775" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 91250"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击某个学生进入学生首页</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7879,6 +8836,2656 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="1962150"/>
+          <a:ext cx="10991850" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="8553450"/>
+          <a:ext cx="10915650" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="13163550"/>
+          <a:ext cx="10982325" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12525375" y="2188845"/>
+          <a:ext cx="7105650" cy="4097655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="4152900"/>
+          <a:ext cx="10372725" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右箭头 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11490960" y="3916045"/>
+          <a:ext cx="3013710" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 102284"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击班级记录查看学生成绩明细</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4618990" y="10506075"/>
+          <a:ext cx="3001010" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10092690" y="8448040"/>
+          <a:ext cx="4947285" cy="3686810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右箭头 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="10277475"/>
+          <a:ext cx="3013710" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 102284"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击班级进入班级首页</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="1371600"/>
+          <a:ext cx="10829925" cy="8448675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2762250"/>
+          <a:ext cx="848360" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085215" y="3759200"/>
+          <a:ext cx="3328670" cy="2480310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="线形标注 2 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15716250" y="2933700"/>
+          <a:ext cx="1990725" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48906"/>
+            <a:gd name="adj2" fmla="val -6634"/>
+            <a:gd name="adj3" fmla="val 48216"/>
+            <a:gd name="adj4" fmla="val -40223"/>
+            <a:gd name="adj5" fmla="val 147640"/>
+            <a:gd name="adj6" fmla="val -70366"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>如果有消费记录，则显示消费记录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="线形标注 2 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="3333750"/>
+          <a:ext cx="1990725" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63291"/>
+            <a:gd name="adj2" fmla="val 146475"/>
+            <a:gd name="adj3" fmla="val -67433"/>
+            <a:gd name="adj4" fmla="val 120063"/>
+            <a:gd name="adj5" fmla="val 47525"/>
+            <a:gd name="adj6" fmla="val 90398"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>点击这里可以跳转到班级首页</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="线形标注 2 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="2152650"/>
+          <a:ext cx="1990725" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48906"/>
+            <a:gd name="adj2" fmla="val -6634"/>
+            <a:gd name="adj3" fmla="val 48216"/>
+            <a:gd name="adj4" fmla="val -40223"/>
+            <a:gd name="adj5" fmla="val 289182"/>
+            <a:gd name="adj6" fmla="val -85199"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>成绩雷达图</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>208915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="线形标注 2 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15563850" y="5981700"/>
+          <a:ext cx="1990725" cy="685165"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48906"/>
+            <a:gd name="adj2" fmla="val -6634"/>
+            <a:gd name="adj3" fmla="val 48216"/>
+            <a:gd name="adj4" fmla="val -40223"/>
+            <a:gd name="adj5" fmla="val 147640"/>
+            <a:gd name="adj6" fmla="val -70366"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>如果是住校生，则显示该宿舍所有人的列表，点击个人信息则跳转到学生主页</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="线形标注 2 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="8896350"/>
+          <a:ext cx="1990725" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52359"/>
+            <a:gd name="adj2" fmla="val 102934"/>
+            <a:gd name="adj3" fmla="val 49942"/>
+            <a:gd name="adj4" fmla="val 121020"/>
+            <a:gd name="adj5" fmla="val -68124"/>
+            <a:gd name="adj6" fmla="val 148771"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>如果有考勤记录，则显示考勤记录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="11029950"/>
+          <a:ext cx="3800475" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="16354425"/>
+          <a:ext cx="10839450" cy="5724525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="23050500"/>
+          <a:ext cx="10868025" cy="5076825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="29308425"/>
+          <a:ext cx="8877300" cy="7820025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="39071550"/>
+          <a:ext cx="8829675" cy="5467350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="46110525"/>
+          <a:ext cx="3886200" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="50977800"/>
+          <a:ext cx="11029950" cy="10134600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="62369700"/>
+          <a:ext cx="10496550" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="67151250"/>
+          <a:ext cx="9925050" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="72551925"/>
+          <a:ext cx="8657590" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="线形标注 2 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="73313925"/>
+          <a:ext cx="2571750" cy="551815"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50632"/>
+            <a:gd name="adj2" fmla="val 99106"/>
+            <a:gd name="adj3" fmla="val 44764"/>
+            <a:gd name="adj4" fmla="val 118628"/>
+            <a:gd name="adj5" fmla="val -88837"/>
+            <a:gd name="adj6" fmla="val 173173"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>可以调整数据窗口【宽度可以变化】和范围【前后可以移动】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:cs typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8183,7 +11790,7 @@
       </c>
     </row>
     <row r="6" ht="17.25" spans="37:37">
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8212,7 +11819,7 @@
       </c>
     </row>
     <row r="13" ht="17.25" spans="37:37">
-      <c r="AK13" s="5" t="s">
+      <c r="AK13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8230,7 +11837,7 @@
       </c>
     </row>
     <row r="19" spans="39:49">
-      <c r="AM19" s="6" t="s">
+      <c r="AM19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="AW19" s="3" t="s">
@@ -8238,7 +11845,7 @@
       </c>
     </row>
     <row r="21" spans="39:39">
-      <c r="AM21" s="4" t="s">
+      <c r="AM21" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8263,25 +11870,25 @@
       </c>
     </row>
     <row r="31" spans="38:40">
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4" t="s">
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AN31" s="4"/>
+      <c r="AN31" s="6"/>
     </row>
     <row r="32" spans="37:40">
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
     </row>
     <row r="33" spans="37:40">
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4" t="s">
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AN33" s="4"/>
+      <c r="AN33" s="6"/>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" s="3" t="s">
@@ -8294,6 +11901,37 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E4:I87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BW15" sqref="BW15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="30" spans="5:5">
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9">
+      <c r="I87" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8371,7 +12009,7 @@
       </c>
     </row>
     <row r="16" spans="27:27">
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8396,7 +12034,7 @@
       </c>
     </row>
     <row r="48" spans="38:38">
-      <c r="AL48" s="4" t="s">
+      <c r="AL48" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8411,7 +12049,7 @@
       </c>
     </row>
     <row r="78" spans="42:42">
-      <c r="AP78" s="4" t="s">
+      <c r="AP78" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8448,7 +12086,7 @@
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8546,7 +12184,7 @@
   <dimension ref="E4:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="BQ49" sqref="BQ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
@@ -8601,13 +12239,13 @@
   <sheetPr/>
   <dimension ref="E4:AR143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BN131" sqref="BN131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -8616,30 +12254,30 @@
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="1" t="s">
+      <c r="K141" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="143" spans="11:44">
-      <c r="K143" s="1" t="s">
+      <c r="K143" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AR143" s="1" t="s">
+      <c r="AR143" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8648,4 +12286,192 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E4:G78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="30" spans="5:5">
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7">
+      <c r="G78" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E4:AG352"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G352" sqref="G352"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" ht="30" spans="5:5">
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" spans="7:7">
+      <c r="G50" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="33:33">
+      <c r="AG53" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="33:33">
+      <c r="AG55" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="33:33">
+      <c r="AG57" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" ht="20.25" spans="8:8">
+      <c r="H73" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" ht="20.25" spans="8:8">
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" ht="20.25" spans="8:8">
+      <c r="H105" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" ht="20.25" spans="8:8">
+      <c r="H135" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" ht="20.25" spans="8:8">
+      <c r="H180" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="10:10">
+      <c r="J182" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="10:10">
+      <c r="J212" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="10:10">
+      <c r="J213" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" ht="24.75" spans="7:7">
+      <c r="G216" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="33:33">
+      <c r="AG218" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="239" spans="10:10">
+      <c r="J239" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="291" ht="24.75" spans="8:8">
+      <c r="H291" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="293" spans="11:11">
+      <c r="K293" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="316" spans="11:11">
+      <c r="K316" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="352" ht="24.75" spans="7:7">
+      <c r="G352" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档和备忘/数智教育用户手册.xlsx
+++ b/文档和备忘/数智教育用户手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>数智教育 - 宁波实效中学 可视化门户网站使用说明</t>
   </si>
@@ -31,7 +31,7 @@
     <t>运用技术：</t>
   </si>
   <si>
-    <t>Net Core 3.0 Preview</t>
+    <t>Net Core 3.0 Preview3</t>
   </si>
   <si>
     <t>WebApi</t>
@@ -304,6 +304,9 @@
     <t>同时提供了每日消费的图形表示：该图表支持观察区域的窗口变化和移动</t>
   </si>
   <si>
+    <t>这里只是简单的列出了考勤信息</t>
+  </si>
+  <si>
     <t>班级首页</t>
   </si>
   <si>
@@ -374,21 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -399,44 +387,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,9 +410,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,13 +425,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -489,7 +432,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +492,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,31 +528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,49 +564,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,24 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,19 +648,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,21 +719,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -775,17 +763,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -816,6 +793,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -824,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,16 +839,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,119 +857,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,9 +977,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4488,19 +4488,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>113030</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4513,8 +4513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409950" y="3076575"/>
-          <a:ext cx="8715375" cy="6362700"/>
+          <a:off x="3419475" y="3124200"/>
+          <a:ext cx="3094355" cy="6057900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11483,6 +11483,90 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="75076050"/>
+          <a:ext cx="3438525" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="75085575"/>
+          <a:ext cx="9848850" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11775,13 +11859,13 @@
   <sheetPr/>
   <dimension ref="E4:AW38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM34" sqref="AM34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -11790,108 +11874,108 @@
       </c>
     </row>
     <row r="6" ht="17.25" spans="37:37">
-      <c r="AK6" s="7" t="s">
+      <c r="AK6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="39:49">
-      <c r="AM8" s="3" t="s">
+      <c r="AM8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AW8" s="3" t="s">
+      <c r="AW8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="39:49">
-      <c r="AM9" s="3" t="s">
+      <c r="AM9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AW9" s="3" t="s">
+      <c r="AW9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="39:49">
-      <c r="AM10" s="3" t="s">
+      <c r="AM10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AW10" s="3" t="s">
+      <c r="AW10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="37:37">
-      <c r="AK13" s="7" t="s">
+      <c r="AK13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="39:49">
-      <c r="AM15" s="3" t="s">
+      <c r="AM15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AW15" s="3" t="s">
+      <c r="AW15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="37:37">
-      <c r="AK17" s="3" t="s">
+      <c r="AK17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="39:49">
-      <c r="AM19" s="8" t="s">
+      <c r="AM19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AW19" s="3" t="s">
+      <c r="AW19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="39:39">
-      <c r="AM21" s="6" t="s">
+      <c r="AM21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="37:37">
-      <c r="AK23" s="3" t="s">
+      <c r="AK23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="39:39">
-      <c r="AM25" s="3" t="s">
+      <c r="AM25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="37:37">
-      <c r="AK27" s="3" t="s">
+      <c r="AK27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="39:39">
-      <c r="AM29" s="3" t="s">
+      <c r="AM29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="38:40">
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="6" t="s">
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AN31" s="6"/>
+      <c r="AN31" s="5"/>
     </row>
     <row r="32" spans="37:40">
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
     </row>
     <row r="33" spans="37:40">
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6" t="s">
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AN33" s="6"/>
+      <c r="AN33" s="5"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11911,7 +11995,7 @@
   <sheetPr/>
   <dimension ref="E4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BW15" sqref="BW15"/>
     </sheetView>
   </sheetViews>
@@ -11922,12 +12006,12 @@
   <sheetData>
     <row r="4" ht="30" spans="5:5">
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -11943,12 +12027,12 @@
   <dimension ref="E4:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -11957,7 +12041,7 @@
       </c>
     </row>
     <row r="5" spans="11:11">
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11980,7 +12064,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -11989,67 +12073,67 @@
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="27:27">
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="27:27">
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="27:27">
-      <c r="AA16" s="6" t="s">
+      <c r="AA16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="38:38">
-      <c r="AL42" s="3" t="s">
+      <c r="AL42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="38:38">
-      <c r="AL44" s="3" t="s">
+      <c r="AL44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="38:38">
-      <c r="AL46" s="3" t="s">
+      <c r="AL46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="38:38">
-      <c r="AL48" s="6" t="s">
+      <c r="AL48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="76" spans="42:42">
-      <c r="AP76" s="3" t="s">
+      <c r="AP76" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="78" spans="42:42">
-      <c r="AP78" s="6" t="s">
+      <c r="AP78" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12072,7 +12156,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -12081,32 +12165,32 @@
       </c>
     </row>
     <row r="6" spans="10:10">
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="10:10">
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12123,12 +12207,12 @@
   <dimension ref="E4:K142"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BT36" sqref="BT36"/>
+      <selection activeCell="AW14" sqref="AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -12137,37 +12221,37 @@
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="11:11">
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="11:11">
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="89" spans="11:11">
-      <c r="K89" s="3" t="s">
+      <c r="K89" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="142" spans="11:11">
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12189,7 +12273,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -12198,32 +12282,32 @@
       </c>
     </row>
     <row r="6" spans="8:8">
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="10:10">
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12245,7 +12329,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -12254,30 +12338,30 @@
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="141" spans="11:11">
-      <c r="K141" s="3" t="s">
+      <c r="K141" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="143" spans="11:44">
-      <c r="K143" s="3" t="s">
+      <c r="K143" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AR143" s="3" t="s">
+      <c r="AR143" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12299,7 +12383,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -12308,22 +12392,22 @@
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="7:7">
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -12337,15 +12421,15 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E4:AG352"/>
+  <dimension ref="E4:AG353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G352" sqref="G352"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="30" spans="5:5">
@@ -12354,120 +12438,127 @@
       </c>
     </row>
     <row r="50" ht="24.75" spans="7:7">
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" spans="33:33">
-      <c r="AG53" s="3" t="s">
+      <c r="AG53" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="33:33">
-      <c r="AG55" s="3" t="s">
+      <c r="AG55" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="33:33">
-      <c r="AG57" s="3" t="s">
+      <c r="AG57" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="73" ht="20.25" spans="8:8">
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="74" ht="20.25" spans="8:8">
-      <c r="H74" s="5"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="10:10">
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="105" ht="20.25" spans="8:8">
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="107" spans="10:10">
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="135" ht="20.25" spans="8:8">
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="137" spans="10:10">
-      <c r="J137" s="3" t="s">
+      <c r="J137" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="177" spans="10:10">
-      <c r="J177" s="6" t="s">
+      <c r="J177" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="178" spans="10:10">
-      <c r="J178" s="6" t="s">
+      <c r="J178" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="180" ht="20.25" spans="8:8">
-      <c r="H180" s="5" t="s">
+      <c r="H180" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="182" spans="10:10">
-      <c r="J182" s="3" t="s">
+      <c r="J182" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="212" spans="10:10">
-      <c r="J212" s="6" t="s">
+      <c r="J212" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="213" spans="10:10">
-      <c r="J213" s="6" t="s">
+      <c r="J213" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="216" ht="24.75" spans="7:7">
-      <c r="G216" s="4" t="s">
+      <c r="G216" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="218" spans="33:33">
-      <c r="AG218" s="3" t="s">
+      <c r="AG218" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="239" spans="10:10">
-      <c r="J239" s="3" t="s">
+      <c r="J239" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="291" ht="24.75" spans="8:8">
-      <c r="H291" s="4" t="s">
+      <c r="H291" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="293" spans="11:11">
-      <c r="K293" s="3" t="s">
+      <c r="K293" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="316" spans="11:11">
-      <c r="K316" s="3" t="s">
+      <c r="K316" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="352" ht="24.75" spans="7:7">
-      <c r="G352" s="4"/>
+      <c r="G352" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="353" spans="11:11">
+      <c r="K353" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/文档和备忘/数智教育用户手册.xlsx
+++ b/文档和备忘/数智教育用户手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>WebApi</t>
   </si>
   <si>
-    <t>Angular 7.12</t>
+    <t>Angular 7.2.13</t>
   </si>
   <si>
     <t>UI</t>
@@ -377,6 +377,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -387,6 +402,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,9 +463,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,6 +478,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -432,51 +492,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,22 +508,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,19 +528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,19 +576,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +649,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,72 +712,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -719,6 +719,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -763,6 +778,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -793,32 +819,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -827,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,16 +839,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,115 +857,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1993,6 +1993,48 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="229870" y="5313680"/>
+          <a:ext cx="3818255" cy="3639820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2012,7 +2054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3101,7 +3143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3110,48 +3152,6 @@
         <a:xfrm>
           <a:off x="14535150" y="3962400"/>
           <a:ext cx="2819400" cy="3028950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>115570</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="715645" y="5323840"/>
-          <a:ext cx="2846705" cy="3848735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11859,8 +11859,8 @@
   <sheetPr/>
   <dimension ref="E4:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
@@ -12026,8 +12026,8 @@
   <sheetPr/>
   <dimension ref="E4:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" outlineLevelRow="4"/>

--- a/文档和备忘/数智教育用户手册.xlsx
+++ b/文档和备忘/数智教育用户手册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -4184,48 +4184,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876425" y="2486025"/>
-          <a:ext cx="2914650" cy="5667375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4244,7 +4202,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4286,7 +4244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4295,6 +4253,48 @@
         <a:xfrm>
           <a:off x="1800225" y="15887700"/>
           <a:ext cx="5876925" cy="5876925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182245</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>57785</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1582420" y="2247900"/>
+          <a:ext cx="5276215" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12026,7 +12026,7 @@
   <sheetPr/>
   <dimension ref="E4:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -12058,8 +12058,8 @@
   <sheetPr/>
   <dimension ref="E4:AP78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5"/>
@@ -12082,18 +12082,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="27:27">
-      <c r="AA12" s="1" t="s">
+    <row r="12" spans="36:36">
+      <c r="AJ12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="27:27">
-      <c r="AA14" s="1" t="s">
+    <row r="14" spans="36:36">
+      <c r="AJ14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="27:27">
-      <c r="AA16" s="5" t="s">
+    <row r="16" spans="36:36">
+      <c r="AJ16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
